--- a/13. Lista de Características (PxExRxB).xlsx
+++ b/13. Lista de Características (PxExRxB).xlsx
@@ -143,7 +143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -162,6 +162,9 @@
     <font>
       <b/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -231,8 +234,8 @@
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -240,8 +243,8 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -249,8 +252,8 @@
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -547,7 +550,7 @@
     </row>
     <row r="3">
       <c r="A3" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -585,8 +588,8 @@
       <c r="Y3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="5">
-        <v>2.0</v>
+      <c r="A4" s="8">
+        <v>3.0</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
@@ -624,8 +627,8 @@
       <c r="Y4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="5">
-        <v>3.0</v>
+      <c r="A5" s="8">
+        <v>4.0</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>12</v>
@@ -664,7 +667,7 @@
     </row>
     <row r="6">
       <c r="A6" s="8">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>15</v>
@@ -703,7 +706,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>16</v>
@@ -742,7 +745,7 @@
     </row>
     <row r="8">
       <c r="A8" s="8">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>17</v>
@@ -781,7 +784,7 @@
     </row>
     <row r="9">
       <c r="A9" s="8">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>18</v>
@@ -820,7 +823,7 @@
     </row>
     <row r="10">
       <c r="A10" s="8">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>19</v>
@@ -859,7 +862,7 @@
     </row>
     <row r="11">
       <c r="A11" s="8">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>20</v>
@@ -898,7 +901,7 @@
     </row>
     <row r="12">
       <c r="A12" s="8">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>21</v>
@@ -937,7 +940,7 @@
     </row>
     <row r="13">
       <c r="A13" s="8">
-        <v>11.0</v>
+        <v>24.0</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>22</v>
@@ -976,7 +979,7 @@
     </row>
     <row r="14">
       <c r="A14" s="8">
-        <v>12.0</v>
+        <v>25.0</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>23</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="15">
       <c r="A15" s="8">
-        <v>13.0</v>
+        <v>29.0</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>24</v>
@@ -1054,7 +1057,7 @@
     </row>
     <row r="16">
       <c r="A16" s="8">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>25</v>
@@ -1093,7 +1096,7 @@
     </row>
     <row r="17">
       <c r="A17" s="8">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>26</v>
@@ -1132,7 +1135,7 @@
     </row>
     <row r="18">
       <c r="A18" s="8">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>27</v>
@@ -1171,7 +1174,7 @@
     </row>
     <row r="19">
       <c r="A19" s="8">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>28</v>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="21">
       <c r="A21" s="8">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>30</v>
@@ -1288,7 +1291,7 @@
     </row>
     <row r="22">
       <c r="A22" s="8">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>31</v>
@@ -1327,7 +1330,7 @@
     </row>
     <row r="23">
       <c r="A23" s="8">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>32</v>
@@ -1366,7 +1369,7 @@
     </row>
     <row r="24">
       <c r="A24" s="8">
-        <v>22.0</v>
+        <v>28.0</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>34</v>
@@ -1405,7 +1408,7 @@
     </row>
     <row r="25">
       <c r="A25" s="8">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>35</v>
@@ -1444,7 +1447,7 @@
     </row>
     <row r="26">
       <c r="A26" s="8">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>36</v>
@@ -1483,7 +1486,7 @@
     </row>
     <row r="27">
       <c r="A27" s="8">
-        <v>25.0</v>
+        <v>17.0</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>37</v>
@@ -1522,7 +1525,7 @@
     </row>
     <row r="28">
       <c r="A28" s="8">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>38</v>
@@ -1561,7 +1564,7 @@
     </row>
     <row r="29">
       <c r="A29" s="8">
-        <v>27.0</v>
+        <v>20.0</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>39</v>
@@ -1600,7 +1603,7 @@
     </row>
     <row r="30">
       <c r="A30" s="8">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>40</v>
@@ -1639,7 +1642,7 @@
     </row>
     <row r="31">
       <c r="A31" s="8">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>41</v>
